--- a/data-raw/Exportfile_M1_de.xlsx
+++ b/data-raw/Exportfile_M1_de.xlsx
@@ -489,7 +489,7 @@
     <x:t>195</x:t>
   </x:si>
   <x:si>
-    <x:t>Apprentice</x:t>
+    <x:t>Lernende/r</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -507,7 +507,7 @@
     <x:t>284</x:t>
   </x:si>
   <x:si>
-    <x:t>Trainee</x:t>
+    <x:t>Praktikant/in</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -516,25 +516,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Technical clerk</x:t>
+    <x:t>Technische/r Sachbearbeiter/in</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Head of department</x:t>
+    <x:t>Abteilungsleiter/in</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Team Leader</x:t>
+    <x:t>Teamleiter/in</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Project Manager</x:t>
+    <x:t>Projektleiter/in Senior</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -543,13 +543,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>Chief fitter</x:t>
+    <x:t>Chefmonteur/in</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>Fitter/Installer</x:t>
+    <x:t>Monteur/in-Installateur/in</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -567,13 +567,13 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>Junior Project Manager</x:t>
+    <x:t>Projektleiter/in Junior</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>Technician</x:t>
+    <x:t>Techniker/in</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
@@ -582,13 +582,13 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>Commercial clerk</x:t>
+    <x:t>Kaufmännische/r Sachbearbeiter/in</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>Service Fitter</x:t>
+    <x:t>Service-Monteur/in</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
@@ -609,7 +609,7 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>Executive Assistant</x:t>
+    <x:t>Direktionsassistent/in</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -621,7 +621,7 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>Head of division, board member</x:t>
+    <x:t>Bereichsleiter/in, Mitglied GL</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -630,7 +630,7 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>Receptionist</x:t>
+    <x:t>Empfangsmitarbeiter/in</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
@@ -693,7 +693,7 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
-    <x:t>Professional Project Manager</x:t>
+    <x:t>Projektleiter/in Professional</x:t>
   </x:si>
   <x:si>
     <x:t>49</x:t>
@@ -777,7 +777,7 @@
     <x:t>75</x:t>
   </x:si>
   <x:si>
-    <x:t>Site Foreman/Forewoman</x:t>
+    <x:t>Bauführer/in</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -792,13 +792,13 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>Assistant fitter</x:t>
+    <x:t>Hilfmonteur/in</x:t>
   </x:si>
   <x:si>
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>Logistician</x:t>
+    <x:t>Logistiker/in</x:t>
   </x:si>
   <x:si>
     <x:t>81</x:t>
@@ -840,7 +840,7 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>Technical Facility Manager</x:t>
+    <x:t>Technische/r Hauswart/in</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
@@ -870,7 +870,7 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>Managing Director</x:t>
+    <x:t>Geschäftsführer/in</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -930,7 +930,7 @@
     <x:t>121</x:t>
   </x:si>
   <x:si>
-    <x:t>Engineer</x:t>
+    <x:t>Ingenieur/in</x:t>
   </x:si>
   <x:si>
     <x:t>122</x:t>
@@ -1320,7 +1320,7 @@
     <x:t>252</x:t>
   </x:si>
   <x:si>
-    <x:t>Buyer</x:t>
+    <x:t>Einkäufer/in</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -2816,7 +2816,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E25" s="68">
-        <x:v>45586</x:v>
+        <x:v>45588</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:24">
@@ -3020,12 +3020,8 @@
       <x:c r="F2" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G2" s="2" t="n"/>
+      <x:c r="H2" s="2" t="n"/>
       <x:c r="I2" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3088,12 +3084,8 @@
       <x:c r="F3" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G3" s="2" t="n"/>
+      <x:c r="H3" s="2" t="n"/>
       <x:c r="I3" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3156,12 +3148,8 @@
       <x:c r="F4" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G4" s="2" t="n"/>
+      <x:c r="H4" s="2" t="n"/>
       <x:c r="I4" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3224,12 +3212,8 @@
       <x:c r="F5" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G5" s="2" t="n"/>
+      <x:c r="H5" s="2" t="n"/>
       <x:c r="I5" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3292,12 +3276,8 @@
       <x:c r="F6" s="6" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="G6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G6" s="2" t="n"/>
+      <x:c r="H6" s="2" t="n"/>
       <x:c r="I6" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -22449,26 +22429,26 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>162</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>338</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -22481,162 +22461,162 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>92</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B7" s="6" t="s">
-        <x:v>208</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B14" s="6" t="s">
-        <x:v>188</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="6" t="s">
-        <x:v>91</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B15" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B22" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B23" s="6" t="s">
-        <x:v>178</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B25" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
